--- a/data/trans_dic/P16A01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.08725904735089773</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.0697641771998372</v>
+        <v>0.06976417719983719</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05270064037364831</v>
+        <v>0.05066308568848501</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06608721620605817</v>
+        <v>0.06797359454751288</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0383206804028745</v>
+        <v>0.04249590438385315</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03122141591919163</v>
+        <v>0.02905018373164799</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04486419025871979</v>
+        <v>0.04633646682004884</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09142497934613676</v>
+        <v>0.09001913094013055</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08707389249793628</v>
+        <v>0.08606222432177134</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04905398920697993</v>
+        <v>0.04808366775271056</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05356196782080733</v>
+        <v>0.05348777712086662</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08615864962335475</v>
+        <v>0.08502065111731066</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0697845974027837</v>
+        <v>0.06949991078591773</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04560863412079624</v>
+        <v>0.04667842761608868</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09770571263157601</v>
+        <v>0.09488579592270739</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1207991583889261</v>
+        <v>0.1223746346503538</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08783012656013059</v>
+        <v>0.09236756839310616</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1157099777617419</v>
+        <v>0.1115983892854833</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08784256298551249</v>
+        <v>0.09208311405907875</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1550793481747047</v>
+        <v>0.1519745250396219</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1479755956643168</v>
+        <v>0.1485492942094217</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1315100601370617</v>
+        <v>0.1333290029877572</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0852281049523025</v>
+        <v>0.08394739014196709</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.126474282312546</v>
+        <v>0.1281176852788916</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1113041831577605</v>
+        <v>0.1092922940452121</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.105803145209376</v>
+        <v>0.1021380326418008</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03103440995091499</v>
+        <v>0.03195521715137967</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07305692873841362</v>
+        <v>0.0745280170984234</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06537267668063147</v>
+        <v>0.06662118119734087</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08147425346443272</v>
+        <v>0.07580621201036226</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0563954760440815</v>
+        <v>0.05658800217821089</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07031812881901062</v>
+        <v>0.06895669884017609</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06368964785643182</v>
+        <v>0.06185783325296779</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05194677520774309</v>
+        <v>0.05157315134669894</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04840581187372103</v>
+        <v>0.04766282446910611</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07900000205057413</v>
+        <v>0.07726150268528527</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0704537684401158</v>
+        <v>0.0701735661316905</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07222834306111008</v>
+        <v>0.07037921776893748</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06314539921065858</v>
+        <v>0.0643679044336148</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1199993511471071</v>
+        <v>0.1194711602549847</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1138026666654461</v>
+        <v>0.1138516416510187</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1596709823697025</v>
+        <v>0.1558585042278035</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1003005387696599</v>
+        <v>0.09953466941018975</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1189314825452708</v>
+        <v>0.1190994440679114</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1099443320253908</v>
+        <v>0.1064781452358937</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1006568837602102</v>
+        <v>0.1009243190453532</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07365020642552318</v>
+        <v>0.07472596961909345</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1135684958455309</v>
+        <v>0.1110190583729662</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1045058565174995</v>
+        <v>0.1031610689526137</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1146037531709938</v>
+        <v>0.1150802686695995</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.08000747841534932</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.066503866970541</v>
+        <v>0.06650386697054102</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.06824253398396435</v>
@@ -969,7 +969,7 @@
         <v>0.0767784809688072</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07013355343118767</v>
+        <v>0.07013355343118766</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04462770583855694</v>
+        <v>0.04426837626194519</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06356740484623555</v>
+        <v>0.06275325709387301</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05511926276059751</v>
+        <v>0.05524570707686167</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05357820990530075</v>
+        <v>0.05348794619332869</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05496448068463981</v>
+        <v>0.05613930166966671</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05635025912058777</v>
+        <v>0.05594717525975737</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06255313330873667</v>
+        <v>0.0606283433543921</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05159050003873519</v>
+        <v>0.05094414954263203</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05456423231921122</v>
+        <v>0.05527533121603817</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06540601654808302</v>
+        <v>0.06437687454677364</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06303566162239427</v>
+        <v>0.06233220982367816</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05836655434328319</v>
+        <v>0.05728290836351994</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08447570617483328</v>
+        <v>0.08148198460682343</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1099431323706859</v>
+        <v>0.1079597402447491</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09740584469276699</v>
+        <v>0.0948987710619074</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09801566017176942</v>
+        <v>0.09730515666035389</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09752644450023679</v>
+        <v>0.1006272661124972</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09540058166483906</v>
+        <v>0.09487611197243685</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1031668650074822</v>
+        <v>0.1026098272771471</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08516813936643457</v>
+        <v>0.08412560740623816</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08348633320783999</v>
+        <v>0.08340413394622952</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09601177010559557</v>
+        <v>0.09506764050690125</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0920643586998101</v>
+        <v>0.09232889199329616</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08443185947316963</v>
+        <v>0.08324766223482469</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.06303709438879827</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06578964066099964</v>
+        <v>0.06578964066099963</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.04229205770475121</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03315269278083288</v>
+        <v>0.03375749136485863</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05536878672021905</v>
+        <v>0.05894611245090225</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04522098765338149</v>
+        <v>0.04538573309637252</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04903603150745629</v>
+        <v>0.04763734356832873</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02685444080081701</v>
+        <v>0.02679391162023343</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.055102128577548</v>
+        <v>0.05670430119405623</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05172585776009512</v>
+        <v>0.05170687971637185</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05413425902624002</v>
+        <v>0.05351293205650968</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03476747492264521</v>
+        <v>0.03487836088531451</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06107628927306683</v>
+        <v>0.06174703298401457</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05170639042036593</v>
+        <v>0.05177789574267416</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05549108051951149</v>
+        <v>0.05468378959077221</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07538179386988911</v>
+        <v>0.07700335747507664</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1047440679443756</v>
+        <v>0.1077786906658535</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08680954835830354</v>
+        <v>0.08486307613286211</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08718719013377625</v>
+        <v>0.08942182758402489</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06024252654371005</v>
+        <v>0.06304265524480362</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09903764671018198</v>
+        <v>0.09950592610332855</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0948125098467065</v>
+        <v>0.09329528471625433</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08280660141762698</v>
+        <v>0.0823558649432511</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06295413653561632</v>
+        <v>0.06164944481167808</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09346681791002248</v>
+        <v>0.09296182487492315</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08187544957261762</v>
+        <v>0.08218902383062883</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07954671031652145</v>
+        <v>0.07967385293088156</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.07732870593947798</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05735095776382676</v>
+        <v>0.05735095776382675</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.05288716803730598</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.046401393738552</v>
+        <v>0.04620459143382328</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06487876107776673</v>
+        <v>0.06660828517140704</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05373936520075931</v>
+        <v>0.05485419637794021</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0405560314284384</v>
+        <v>0.04041003204598487</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03334176213491573</v>
+        <v>0.03273522508033365</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04023147753479685</v>
+        <v>0.04020347938400447</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05835167852338908</v>
+        <v>0.06082374972868274</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0753818843703644</v>
+        <v>0.07316523523665799</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04547961275186859</v>
+        <v>0.04620985296015689</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05947170317439682</v>
+        <v>0.05974132252359408</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06333286457059228</v>
+        <v>0.06475253890566725</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06227064111313405</v>
+        <v>0.06249512818332026</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09938702800611093</v>
+        <v>0.09644378334148218</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1282063079372505</v>
+        <v>0.1283657083268376</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1073889693495329</v>
+        <v>0.1067811559844616</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07820140868036342</v>
+        <v>0.07989150852796638</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0777171904917099</v>
+        <v>0.07864649965251597</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08930303976654541</v>
+        <v>0.0905731517027437</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1131733805668574</v>
+        <v>0.1136079715172455</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1109360309045463</v>
+        <v>0.1105726930661196</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07883267924538052</v>
+        <v>0.07867990454933013</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09801197755231587</v>
+        <v>0.09821145633362532</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1003099736691421</v>
+        <v>0.09999303009955345</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08823061725991226</v>
+        <v>0.08993951494457819</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.0744009848231342</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.08099464372230626</v>
+        <v>0.08099464372230625</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.09207910779197978</v>
@@ -1377,7 +1377,7 @@
         <v>0.07516090923915587</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.08040963043604681</v>
+        <v>0.08040963043604682</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.07179377967476498</v>
+        <v>0.06912281271648781</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07402102954354681</v>
+        <v>0.07190775395082942</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0496253178285489</v>
+        <v>0.05243031623735387</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.06111473301019312</v>
+        <v>0.05866555436720145</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.05918344739487779</v>
+        <v>0.05893547172316492</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04852916596287039</v>
+        <v>0.04676049071441529</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.04710458069367378</v>
+        <v>0.04998107275461716</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06223509983953525</v>
+        <v>0.06336315028493565</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.07115655779147884</v>
+        <v>0.07267341422629491</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.06761354837992271</v>
+        <v>0.06628405542990995</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.05652810852935325</v>
+        <v>0.05727771336551404</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.06679207813983598</v>
+        <v>0.06711238634559762</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.138518389794527</v>
+        <v>0.1397196044520742</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1418414661641064</v>
+        <v>0.145573160740775</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.10375717874238</v>
+        <v>0.1066265472586985</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1044554497641776</v>
+        <v>0.1038403907851165</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.116047523918649</v>
+        <v>0.1176680865072562</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1028272069894175</v>
+        <v>0.1035266452414215</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1016170348990801</v>
+        <v>0.1085697299841277</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.09957836362730692</v>
+        <v>0.1034038157892457</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1162232371221522</v>
+        <v>0.1187336922325916</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1129133689389174</v>
+        <v>0.1131219197668765</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.09384035998677535</v>
+        <v>0.09695963519927167</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.09535470592300579</v>
+        <v>0.09544703155953475</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1219448522686244</v>
+        <v>0.1208862453786179</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1136996290726489</v>
+        <v>0.1175586410089931</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08529228894089462</v>
+        <v>0.09046056370542331</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03706607708545456</v>
+        <v>0.0382861161552419</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02712873463339012</v>
+        <v>0.02707049591484496</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06326365210891458</v>
+        <v>0.06749459132201964</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05940326596131684</v>
+        <v>0.06055396450783933</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06926449458723194</v>
+        <v>0.07029466634848582</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07074245805769143</v>
+        <v>0.0710038979132812</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.09446464834868797</v>
+        <v>0.09354753084656839</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.07692458259485747</v>
+        <v>0.07873907498018026</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06202001915185822</v>
+        <v>0.06248248470743386</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2246063373733262</v>
+        <v>0.221302916731638</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2156782076442766</v>
+        <v>0.2160114826798164</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1630058770417019</v>
+        <v>0.168746483483811</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.08025890213769352</v>
+        <v>0.08282965437040203</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0791877995352399</v>
+        <v>0.07426449919841403</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1238710732370427</v>
+        <v>0.1272854476979352</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1322447301823291</v>
+        <v>0.1309829310430514</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1089898714348408</v>
+        <v>0.1095186293881913</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1201060456607161</v>
+        <v>0.1223887656545651</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1494612836477902</v>
+        <v>0.1484879283046655</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1280023342480657</v>
+        <v>0.1318678924766852</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.09037036842891384</v>
+        <v>0.0906020233242562</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.07693165230526061</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.07182481326029244</v>
+        <v>0.07182481326029246</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.06424134627277592</v>
@@ -1637,7 +1637,7 @@
         <v>0.08330508377987707</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.07726635649936379</v>
+        <v>0.07726635649936381</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.06669004515213445</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.06074742996258536</v>
+        <v>0.06104324235792345</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.08448269044802401</v>
+        <v>0.08393275536988104</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.06813111606989163</v>
+        <v>0.0679048757806479</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.06223384258907049</v>
+        <v>0.06250445909584949</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0562150511440507</v>
+        <v>0.05595079355774964</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.07423189396102153</v>
+        <v>0.07413946967333503</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.07470695684611359</v>
+        <v>0.07444970132488976</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.07000756374880836</v>
+        <v>0.070359969608863</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.06078587985487535</v>
+        <v>0.06120673131518756</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.08194149582237116</v>
+        <v>0.08228158885690666</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.07387702151471137</v>
+        <v>0.07409874253600693</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.0685061620694369</v>
+        <v>0.06883927116381014</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0785301469169319</v>
+        <v>0.0778587709875703</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1051432020606656</v>
+        <v>0.1052904342882797</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.08687590321632312</v>
+        <v>0.08658024393870124</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.081876357131572</v>
+        <v>0.0825952856185993</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.07352302162972016</v>
+        <v>0.07263334112364482</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.09306411132640596</v>
+        <v>0.09277523685175509</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.09339693749472888</v>
+        <v>0.09391440770746225</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.08654911351759706</v>
+        <v>0.08638419991258757</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.07315267519894661</v>
+        <v>0.07349906509656892</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.09687644174726529</v>
+        <v>0.09615215937684209</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.08755408962427647</v>
+        <v>0.08710336339773458</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.08116399358041072</v>
+        <v>0.08165411558834137</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>26037</v>
+        <v>25031</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>29944</v>
+        <v>30799</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16074</v>
+        <v>17825</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12732</v>
+        <v>11846</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>20974</v>
+        <v>21662</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>39252</v>
+        <v>38649</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>34460</v>
+        <v>34060</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>17783</v>
+        <v>17431</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>51503</v>
+        <v>51431</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>76030</v>
+        <v>75026</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>56890</v>
+        <v>56658</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>35133</v>
+        <v>35957</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>48273</v>
+        <v>46880</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>54735</v>
+        <v>55449</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>36841</v>
+        <v>38745</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>47186</v>
+        <v>45509</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>41065</v>
+        <v>43048</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>66582</v>
+        <v>65249</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>58562</v>
+        <v>58789</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>47674</v>
+        <v>48333</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>81951</v>
+        <v>80720</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>111607</v>
+        <v>113057</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>90737</v>
+        <v>89097</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>81501</v>
+        <v>78677</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22825</v>
+        <v>23503</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>50134</v>
+        <v>51144</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>38602</v>
+        <v>39340</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>38854</v>
+        <v>36151</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>35275</v>
+        <v>35395</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>42839</v>
+        <v>42009</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>35892</v>
+        <v>34860</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>26030</v>
+        <v>25842</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>65879</v>
+        <v>64868</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>102341</v>
+        <v>100088</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>81306</v>
+        <v>80983</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>70637</v>
+        <v>68829</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>46443</v>
+        <v>47342</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>82348</v>
+        <v>81986</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>67200</v>
+        <v>67229</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>76145</v>
+        <v>74327</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>62737</v>
+        <v>62258</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>72455</v>
+        <v>72557</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>61958</v>
+        <v>60005</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>50437</v>
+        <v>50571</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>100237</v>
+        <v>101701</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>147122</v>
+        <v>143820</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>120604</v>
+        <v>119052</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>112079</v>
+        <v>112545</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>28457</v>
+        <v>28228</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>43229</v>
+        <v>42676</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>36880</v>
+        <v>36965</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>33263</v>
+        <v>33207</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>37911</v>
+        <v>38722</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>39780</v>
+        <v>39495</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>41372</v>
+        <v>40099</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>32057</v>
+        <v>31655</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>72428</v>
+        <v>73372</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>90652</v>
+        <v>89226</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>83868</v>
+        <v>82932</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>72504</v>
+        <v>71157</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>53866</v>
+        <v>51957</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>74767</v>
+        <v>73418</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>65174</v>
+        <v>63496</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>60852</v>
+        <v>60411</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>67268</v>
+        <v>69407</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>67347</v>
+        <v>66976</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>68233</v>
+        <v>67865</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>52921</v>
+        <v>52273</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>110819</v>
+        <v>110710</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>133071</v>
+        <v>131763</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>122490</v>
+        <v>122842</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>104882</v>
+        <v>103411</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17211</v>
+        <v>17525</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>34031</v>
+        <v>36229</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>29215</v>
+        <v>29321</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>34355</v>
+        <v>33376</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>13847</v>
+        <v>13816</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>33837</v>
+        <v>34821</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>33574</v>
+        <v>33562</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>39891</v>
+        <v>39433</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>35977</v>
+        <v>36092</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>75044</v>
+        <v>75868</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>66966</v>
+        <v>67059</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>79769</v>
+        <v>78608</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>39134</v>
+        <v>39976</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>64377</v>
+        <v>66243</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>56083</v>
+        <v>54826</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>61085</v>
+        <v>62650</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31064</v>
+        <v>32507</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>60816</v>
+        <v>61104</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>61541</v>
+        <v>60556</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>61019</v>
+        <v>60687</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>65144</v>
+        <v>63794</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>114842</v>
+        <v>114221</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>106039</v>
+        <v>106445</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>114349</v>
+        <v>114531</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>17944</v>
+        <v>17868</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>27790</v>
+        <v>28531</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>25683</v>
+        <v>26216</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>24673</v>
+        <v>24584</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>13470</v>
+        <v>13225</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>17970</v>
+        <v>17958</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>28992</v>
+        <v>30220</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>45791</v>
+        <v>44444</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>35961</v>
+        <v>36538</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>52039</v>
+        <v>52275</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>61735</v>
+        <v>63119</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>75709</v>
+        <v>75982</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>38434</v>
+        <v>37296</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>54916</v>
+        <v>54985</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>51323</v>
+        <v>51033</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>47575</v>
+        <v>48603</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>31397</v>
+        <v>31772</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>39889</v>
+        <v>40457</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>56230</v>
+        <v>56446</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>67388</v>
+        <v>67167</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>62333</v>
+        <v>62212</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>85762</v>
+        <v>85937</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>97779</v>
+        <v>97470</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>107271</v>
+        <v>109349</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>21006</v>
+        <v>20224</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>22783</v>
+        <v>22133</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>16591</v>
+        <v>17529</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>24879</v>
+        <v>23882</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>20296</v>
+        <v>20211</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>17134</v>
+        <v>16509</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>17794</v>
+        <v>18881</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>27332</v>
+        <v>27827</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>45221</v>
+        <v>46185</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>44683</v>
+        <v>43804</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>40253</v>
+        <v>40787</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>56523</v>
+        <v>56794</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>40528</v>
+        <v>40880</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>43658</v>
+        <v>44807</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>34689</v>
+        <v>35648</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>42522</v>
+        <v>42271</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>39797</v>
+        <v>40352</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>36304</v>
+        <v>36551</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>38387</v>
+        <v>41014</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>43731</v>
+        <v>45411</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>73862</v>
+        <v>75457</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>74619</v>
+        <v>74757</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>66823</v>
+        <v>69044</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>80694</v>
+        <v>80772</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>25594</v>
+        <v>25372</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>28315</v>
+        <v>29276</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>21920</v>
+        <v>23248</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>11498</v>
+        <v>11876</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>9059</v>
+        <v>9039</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>24467</v>
+        <v>26104</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>23771</v>
+        <v>24232</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>32075</v>
+        <v>32552</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>38469</v>
+        <v>38611</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>60060</v>
+        <v>59476</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>50552</v>
+        <v>51745</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>47959</v>
+        <v>48316</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>47141</v>
+        <v>46448</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>53712</v>
+        <v>53795</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>41892</v>
+        <v>43368</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>24896</v>
+        <v>25694</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>26441</v>
+        <v>24798</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>47908</v>
+        <v>49228</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>52920</v>
+        <v>52415</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>50471</v>
+        <v>50716</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>65313</v>
+        <v>66554</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>95026</v>
+        <v>94407</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>84119</v>
+        <v>86659</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>69881</v>
+        <v>70060</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>198980</v>
+        <v>199949</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>288862</v>
+        <v>286982</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>231261</v>
+        <v>230493</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>219796</v>
+        <v>220752</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>189962</v>
+        <v>189069</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>263156</v>
+        <v>262828</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>264802</v>
+        <v>263890</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>261237</v>
+        <v>262552</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>404513</v>
+        <v>407314</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>570660</v>
+        <v>573028</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>512625</v>
+        <v>514163</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>497582</v>
+        <v>500002</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>257227</v>
+        <v>255028</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>359504</v>
+        <v>360008</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>294887</v>
+        <v>293884</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>289169</v>
+        <v>291708</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>248449</v>
+        <v>245442</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>329917</v>
+        <v>328893</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>331049</v>
+        <v>332884</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>322962</v>
+        <v>322347</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>486811</v>
+        <v>489116</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>674670</v>
+        <v>669626</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>607528</v>
+        <v>604401</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>589520</v>
+        <v>593080</v>
       </c>
     </row>
     <row r="36">
